--- a/biology/Botanique/Directeur_Alphand/Directeur_Alphand.xlsx
+++ b/biology/Botanique/Directeur_Alphand/Directeur_Alphand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Directeur Alphand' est un cultivar de rosier obtenu en 1883 par le rosiériste français Louis Lévêque. Cet hybride remontant rend hommage à l'ingénieur des Ponts et Chaussées Adolphe Alphand (1817-1891), urbaniste dans le sillage du baron Haussmann, amateur de jardin, considéré comme le père des espaces verts de Paris.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson érigé de 'Directeur Alphand' s'élève à 150 cm. Ses fleurs sont grosses, pleines, en forme de coupe, un gros œil au cœur. Leur coloris est pourpre foncé à reflets violine[1]. Leurs pétales bien déroulés sont plus pâles au revers. La floraison est remontante[2]. Elles sont très parfumées. 
-Cette variété résiste à des températures hivernales de -20°C[2]. Elle est présente dans des catalogues d'amateurs de roses romantiques et appréciée pour son coloris plein de distinction et son parfum capiteux[3].    
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson érigé de 'Directeur Alphand' s'élève à 150 cm. Ses fleurs sont grosses, pleines, en forme de coupe, un gros œil au cœur. Leur coloris est pourpre foncé à reflets violine. Leurs pétales bien déroulés sont plus pâles au revers. La floraison est remontante. Elles sont très parfumées. 
+Cette variété résiste à des températures hivernales de -20°C. Elle est présente dans des catalogues d'amateurs de roses romantiques et appréciée pour son coloris plein de distinction et son parfum capiteux.    
 </t>
         </is>
       </c>
